--- a/bin/Debug/TemplateVodoravne.xlsx
+++ b/bin/Debug/TemplateVodoravne.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timpo\OneDrive\Namizje\GivosApp\GivosCalc\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF7D9F6-3717-42A8-8FDF-0FB2C9CD49B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FDD9D6-CD4D-4ABC-B14E-587C0D1F1AE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Z montažo" sheetId="1" r:id="rId1"/>
+    <sheet name="Brez montaže" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t>STRANKA ( NASLOV ) :</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
   <si>
     <t>DATUM :</t>
   </si>
@@ -219,6 +215,12 @@
   </si>
   <si>
     <t>RAZREZ</t>
+  </si>
+  <si>
+    <t>STRANKA :</t>
+  </si>
+  <si>
+    <t>POPUST</t>
   </si>
 </sst>
 </file>
@@ -404,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,7 +416,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -432,9 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,6 +442,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -798,72 +799,72 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="C1" s="22"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="C13" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="20">
+      <c r="A15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18">
         <v>10.8</v>
       </c>
       <c r="E15" s="6">
@@ -872,496 +873,496 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="20"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="6">
-        <f t="shared" ref="E16:E53" si="0">C16*D16</f>
+        <f t="shared" ref="E16:E52" si="0">C16*D16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18">
+        <v>7.2</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20">
-        <v>7.2</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20">
+      <c r="B26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18">
+        <v>7.8</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18">
+        <v>33</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18">
+        <v>15.6</v>
+      </c>
+      <c r="E40" s="6">
+        <f>C40*D40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18">
         <v>2.7</v>
       </c>
-      <c r="E18" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="20">
-        <v>22.6</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20">
-        <v>3.9</v>
-      </c>
-      <c r="E21" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20">
-        <v>6.4</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="16" t="s">
+      <c r="E44" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="20">
-        <v>14</v>
-      </c>
-      <c r="E23" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20">
-        <v>22.6</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="20">
-        <v>7.8</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="20">
-        <v>3.9</v>
-      </c>
-      <c r="E27" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="20">
-        <v>33</v>
-      </c>
-      <c r="E29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="20">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="E31" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="20">
-        <v>3.7</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="20">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="16" t="s">
+      <c r="B46" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18">
+        <v>8.9</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="6">
+        <f>C47*D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="E36" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="20">
-        <v>14.5</v>
-      </c>
-      <c r="E38" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="20">
-        <v>8</v>
-      </c>
-      <c r="E39" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="20">
-        <v>15.6</v>
-      </c>
-      <c r="E40" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="20">
-        <v>5.5</v>
-      </c>
-      <c r="E41" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="20">
-        <v>2.5</v>
-      </c>
-      <c r="E42" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="20">
-        <v>2.7</v>
-      </c>
-      <c r="E44" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="20">
-        <v>8.9</v>
-      </c>
-      <c r="E46" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="20">
-        <v>10.9</v>
-      </c>
-      <c r="E48" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="16" t="s">
+      <c r="C49" s="17"/>
+      <c r="D49" s="18">
+        <v>7</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="20">
-        <v>7</v>
-      </c>
-      <c r="E49" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="20">
+      <c r="C50" s="17"/>
+      <c r="D50" s="18">
         <v>3</v>
       </c>
       <c r="E50" s="6">
@@ -1370,44 +1371,46 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="20"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="20"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="7">
-        <f t="shared" si="0"/>
+      <c r="A53" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24">
+        <f>C53</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="22">
-        <f>SUM(E15:E53)</f>
+      <c r="A54" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="19">
+        <f>SUM(E15:E52) - (SUM(E15:E52)*$E$53)</f>
         <v>0</v>
       </c>
     </row>
@@ -1439,26 +1442,657 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18">
+        <v>10.8</v>
+      </c>
+      <c r="E15" s="6">
+        <f>C15*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="6">
+        <f t="shared" ref="E16:E52" si="0">C16*D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18">
+        <v>7.2</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18">
+        <v>22.6</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18">
+        <v>7.8</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18">
+        <v>3.9</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18">
+        <v>33</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18">
+        <v>4.5</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18">
+        <v>3.7</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="17"/>
+      <c r="D36" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="18">
+        <v>14.5</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18">
+        <v>15.6</v>
+      </c>
+      <c r="E40" s="6">
+        <f>C40*D40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="18">
+        <v>8.9</v>
+      </c>
+      <c r="E46" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="6">
+        <f>C47*D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="18">
+        <v>10.9</v>
+      </c>
+      <c r="E48" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18">
+        <v>7</v>
+      </c>
+      <c r="E49" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="18">
+        <v>3</v>
+      </c>
+      <c r="E50" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24">
+        <f>C53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="19">
+        <f>SUM(E15:E52) - (SUM(E15:E52)*$E$53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>

--- a/bin/Debug/TemplateVodoravne.xlsx
+++ b/bin/Debug/TemplateVodoravne.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timpo\OneDrive\Namizje\GivosApp\GivosCalc\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FDD9D6-CD4D-4ABC-B14E-587C0D1F1AE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA45BDD-DC67-4693-8F60-CE97AC923ADF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Z montažo" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
   <si>
     <t>DATUM :</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>POPUST</t>
+  </si>
+  <si>
+    <t>POKROV</t>
   </si>
 </sst>
 </file>
@@ -784,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1205,7 +1208,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
+      <c r="A39" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="B39" s="15" t="s">
         <v>28</v>
       </c>
@@ -1444,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1865,7 +1870,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
+      <c r="A39" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="B39" s="15" t="s">
         <v>28</v>
       </c>

--- a/bin/Debug/TemplateVodoravne.xlsx
+++ b/bin/Debug/TemplateVodoravne.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timpo\OneDrive\Namizje\GivosApp\GivosCalc\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA45BDD-DC67-4693-8F60-CE97AC923ADF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E3205-A4B4-40A9-8185-75942B45E8D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Z montažo" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="66">
   <si>
     <t>DATUM :</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>POKROV</t>
+  </si>
+  <si>
+    <t>LPROFIL</t>
   </si>
 </sst>
 </file>
@@ -787,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1240,7 +1243,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
+      <c r="A41" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B41" s="15" t="s">
         <v>29</v>
       </c>
@@ -1449,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1902,7 +1907,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
+      <c r="A41" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B41" s="15" t="s">
         <v>29</v>
       </c>

--- a/bin/Debug/TemplateVodoravne.xlsx
+++ b/bin/Debug/TemplateVodoravne.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timpo\OneDrive\Namizje\GivosApp\GivosCalc\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E3205-A4B4-40A9-8185-75942B45E8D6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62EA293-5556-4531-8AFE-6113910BFBAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Z montažo" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -450,6 +450,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -813,6 +814,7 @@
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D3" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -821,6 +823,8 @@
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1454,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1477,6 +1481,7 @@
       <c r="A3" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="D3" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1485,6 +1490,7 @@
       <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
